--- a/data/trans_orig/Q5417-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5417-Estudios-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5074</v>
+        <v>4213</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002246594520435747</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01359685384009183</v>
+        <v>0.01128832378875836</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -768,16 +768,16 @@
         <v>893</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8922</v>
+        <v>8627</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005436774028035587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001519309645308148</v>
+        <v>0.001518828117023766</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01518022687804651</v>
+        <v>0.01467762291051289</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>4034</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1099</v>
+        <v>930</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9728</v>
+        <v>8721</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004197839473179046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001143509158545521</v>
+        <v>0.0009673049954901019</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01012313579362767</v>
+        <v>0.009075147634393039</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6782</v>
+        <v>5989</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00455190194736605</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01817356998555313</v>
+        <v>0.0160482719774686</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -836,19 +836,19 @@
         <v>4406</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1139</v>
+        <v>1155</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11158</v>
+        <v>11083</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007496160734439782</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001938272057980717</v>
+        <v>0.001965608722649123</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01898486507926818</v>
+        <v>0.018857173254688</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -857,19 +857,19 @@
         <v>6105</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2047</v>
+        <v>2299</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12079</v>
+        <v>13620</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006352731676276824</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002130346401421039</v>
+        <v>0.00239210949644314</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01257046054104063</v>
+        <v>0.01417379200647568</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>8549</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3926</v>
+        <v>4017</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15671</v>
+        <v>15528</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02290925749631313</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01052042737385045</v>
+        <v>0.01076482647452591</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04199202606390323</v>
+        <v>0.04160771884043462</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -907,19 +907,19 @@
         <v>21927</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14478</v>
+        <v>13964</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32864</v>
+        <v>33660</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03730695338014262</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02463233691902203</v>
+        <v>0.02375811175391099</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05591487596331341</v>
+        <v>0.05726862341842374</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -928,19 +928,19 @@
         <v>30477</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>21244</v>
+        <v>21102</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43334</v>
+        <v>42174</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03171548026764289</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02210807227232654</v>
+        <v>0.02195936888504083</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0450958248491494</v>
+        <v>0.04388831960283695</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>362102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>354694</v>
+        <v>354163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>367477</v>
+        <v>367051</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.970292246035885</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9504419033657853</v>
+        <v>0.9490177824512692</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9846935631456996</v>
+        <v>0.9835517293626905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>546</v>
@@ -978,19 +978,19 @@
         <v>558221</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>547137</v>
+        <v>545172</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>568318</v>
+        <v>568057</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.949760111857382</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9309030765025446</v>
+        <v>0.9275595712837218</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9669397697398391</v>
+        <v>0.9664952870526853</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>933</v>
@@ -999,19 +999,19 @@
         <v>920323</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>906484</v>
+        <v>907350</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>931586</v>
+        <v>931969</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9577339485829013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9433326535554321</v>
+        <v>0.9442340580576192</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9694543935628914</v>
+        <v>0.9698534349669037</v>
       </c>
     </row>
     <row r="8">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5773</v>
+        <v>5945</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01834190768168999</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09279912365366218</v>
+        <v>0.09556704143788211</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5710</v>
+        <v>5779</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.007592310232627089</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03798885450504076</v>
+        <v>0.03845109158922875</v>
       </c>
     </row>
     <row r="10">
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3984</v>
+        <v>4165</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009190302935488504</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04523431332297569</v>
+        <v>0.04728835225732087</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5129</v>
+        <v>5266</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01468850300910648</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08245165313002552</v>
+        <v>0.08464741055397669</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5358</v>
+        <v>7187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01146618619716429</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03564964027366026</v>
+        <v>0.04782066951147524</v>
       </c>
     </row>
     <row r="12">
@@ -1284,7 +1284,7 @@
         <v>87273</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84099</v>
+        <v>83918</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>88083</v>
@@ -1293,7 +1293,7 @@
         <v>0.9908096970645115</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9547656866770243</v>
+        <v>0.9527116477426791</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1305,7 +1305,7 @@
         <v>60157</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54904</v>
+        <v>55259</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>62212</v>
@@ -1314,7 +1314,7 @@
         <v>0.9669695893092035</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8825289566587607</v>
+        <v>0.8882441752748973</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1326,19 +1326,19 @@
         <v>147431</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>142748</v>
+        <v>141236</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>149493</v>
+        <v>149481</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9809415035702086</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9497837989506803</v>
+        <v>0.9397249013097377</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9946634938750384</v>
+        <v>0.9945812679072665</v>
       </c>
     </row>
     <row r="13">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4750</v>
+        <v>4397</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03444385310891124</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1766961690671462</v>
+        <v>0.1635792343522097</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5167</v>
+        <v>4651</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01360083060350504</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07590064628463077</v>
+        <v>0.06832845670700588</v>
       </c>
     </row>
     <row r="16">
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6222</v>
+        <v>5186</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04738674078105654</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2314701426101697</v>
+        <v>0.1929366463749501</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6305</v>
+        <v>6795</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01871158352050372</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09261290242380128</v>
+        <v>0.09981196896300491</v>
       </c>
     </row>
     <row r="17">
@@ -1616,7 +1616,7 @@
         <v>24681</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20320</v>
+        <v>20280</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>26881</v>
@@ -1625,7 +1625,7 @@
         <v>0.9181694061100322</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.755934140944893</v>
+        <v>0.7544430779969095</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>65875</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>60829</v>
+        <v>60133</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>68075</v>
@@ -1646,7 +1646,7 @@
         <v>0.9676875858759912</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8935635248375515</v>
+        <v>0.8833372681369422</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4695</v>
+        <v>4237</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001668579154169476</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009344603514075659</v>
+        <v>0.008432470631009444</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1762,19 +1762,19 @@
         <v>4337</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1129</v>
+        <v>1141</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9957</v>
+        <v>10075</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006407026651411883</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001668622853569762</v>
+        <v>0.001685823224902118</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01471044688942647</v>
+        <v>0.01488490825659916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1783,19 +1783,19 @@
         <v>5175</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11371</v>
+        <v>11760</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.004388123380015286</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001689089994425212</v>
+        <v>0.001692390995744189</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.009642326079977693</v>
+        <v>0.009971851427789231</v>
       </c>
     </row>
     <row r="20">
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5877</v>
+        <v>5905</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003380765256974488</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01169624946007014</v>
+        <v>0.01175291779758217</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1833,19 +1833,19 @@
         <v>5332</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12684</v>
+        <v>11392</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007877377073954089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003001841322855569</v>
+        <v>0.002989090486654244</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0187398506545706</v>
+        <v>0.01683048000416131</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1854,19 +1854,19 @@
         <v>7030</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2445</v>
+        <v>2934</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13324</v>
+        <v>13642</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005961512370845342</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002073052520178705</v>
+        <v>0.00248796111468254</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01129834850322527</v>
+        <v>0.01156779354078522</v>
       </c>
     </row>
     <row r="21">
@@ -1883,19 +1883,19 @@
         <v>9359</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4506</v>
+        <v>4855</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16799</v>
+        <v>16290</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01862611624121252</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.008968418596493442</v>
+        <v>0.009662428793049242</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03343407039251179</v>
+        <v>0.03242030084849307</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -1904,19 +1904,19 @@
         <v>24115</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15575</v>
+        <v>16660</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36953</v>
+        <v>37971</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03562829941696736</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02301165814437675</v>
+        <v>0.0246138834056394</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05459691560955719</v>
+        <v>0.05610035005067113</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -1925,19 +1925,19 @@
         <v>33474</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22832</v>
+        <v>22421</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>46121</v>
+        <v>45874</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02838420454108409</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01936043616511618</v>
+        <v>0.01901213776249104</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03910836202986209</v>
+        <v>0.038898977451055</v>
       </c>
     </row>
     <row r="22">
@@ -1954,19 +1954,19 @@
         <v>490570</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>481229</v>
+        <v>482300</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>495686</v>
+        <v>495536</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9763245393476435</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9577343983718604</v>
+        <v>0.9598663856128822</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9865065296879423</v>
+        <v>0.9862081256911133</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>629</v>
@@ -1975,19 +1975,19 @@
         <v>643059</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>629130</v>
+        <v>630344</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>652924</v>
+        <v>652980</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9500872968576667</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9295083745422777</v>
+        <v>0.9313019562616337</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9646623070047892</v>
+        <v>0.9647453434557319</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1139</v>
@@ -1996,19 +1996,19 @@
         <v>1133629</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1117859</v>
+        <v>1118670</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1146286</v>
+        <v>1145320</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9612661597080553</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9478936263779182</v>
+        <v>0.9485816744486584</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.971999235112153</v>
+        <v>0.9711793290025968</v>
       </c>
     </row>
     <row r="23">
@@ -2339,19 +2339,19 @@
         <v>6256</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3042</v>
+        <v>2139</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13526</v>
+        <v>12842</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01509755145696282</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007340900772004741</v>
+        <v>0.005162677305892034</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03263973559817894</v>
+        <v>0.0309905623245608</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2360,19 +2360,19 @@
         <v>11066</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5439</v>
+        <v>5430</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18976</v>
+        <v>19131</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01743875229422727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008570766117317798</v>
+        <v>0.008557095445983152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02990524447794402</v>
+        <v>0.03014882949897889</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2381,19 +2381,19 @@
         <v>17322</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9823</v>
+        <v>9945</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27045</v>
+        <v>26008</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01651383174035912</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009364650159840908</v>
+        <v>0.009481207826599983</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02578285246089906</v>
+        <v>0.02479437539508771</v>
       </c>
     </row>
     <row r="5">
@@ -2410,19 +2410,19 @@
         <v>4353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13975</v>
+        <v>12597</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01050389784797845</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002493773180020815</v>
+        <v>0.002502925467836782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03372328922013162</v>
+        <v>0.0303978595878037</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -2431,19 +2431,19 @@
         <v>12924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6595</v>
+        <v>6582</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22523</v>
+        <v>24305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0203671234640804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01039261685451266</v>
+        <v>0.0103723942939104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03549504046582373</v>
+        <v>0.03830354776570159</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -2452,19 +2452,19 @@
         <v>17277</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9686</v>
+        <v>9716</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30185</v>
+        <v>28537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01647053332342813</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.009234312241821037</v>
+        <v>0.009263124209939341</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0287767145458521</v>
+        <v>0.02720503253352333</v>
       </c>
     </row>
     <row r="6">
@@ -2481,19 +2481,19 @@
         <v>12774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6735</v>
+        <v>7288</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20754</v>
+        <v>20626</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03082531807353793</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01625280534121517</v>
+        <v>0.0175879211243629</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05008195689587031</v>
+        <v>0.04977346505533591</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -2502,19 +2502,19 @@
         <v>34951</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23921</v>
+        <v>24482</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49190</v>
+        <v>48721</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05508076041305521</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03769745726538938</v>
+        <v>0.03858230794371375</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0775204794963367</v>
+        <v>0.07678036383998546</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -2523,19 +2523,19 @@
         <v>47725</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34356</v>
+        <v>35701</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>62817</v>
+        <v>64092</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04549834577954757</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03275291277600984</v>
+        <v>0.03403512480970539</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05988588925039792</v>
+        <v>0.06110170857478694</v>
       </c>
     </row>
     <row r="7">
@@ -2552,19 +2552,19 @@
         <v>391015</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>379668</v>
+        <v>379912</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>399357</v>
+        <v>399293</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9435732326215208</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9161906535264142</v>
+        <v>0.9167797348055317</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9637043372371024</v>
+        <v>0.9635500910715046</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>543</v>
@@ -2573,19 +2573,19 @@
         <v>575604</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>559486</v>
+        <v>558850</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>590676</v>
+        <v>589844</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9071133638286372</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8817125647487428</v>
+        <v>0.8807104344247286</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.930865693383822</v>
+        <v>0.9295548223842524</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>900</v>
@@ -2594,19 +2594,19 @@
         <v>966618</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>945937</v>
+        <v>946363</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>983299</v>
+        <v>982038</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9215172891566652</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9018008722935663</v>
+        <v>0.9022072830710615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9374194873400862</v>
+        <v>0.9362178541696697</v>
       </c>
     </row>
     <row r="8">
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5365</v>
+        <v>6044</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.00836066539988874</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04521305809443148</v>
+        <v>0.05093196873374852</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8499</v>
+        <v>8438</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02917861155365456</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1023115979848438</v>
+        <v>0.1015738333025159</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -2740,19 +2740,19 @@
         <v>3416</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9159</v>
+        <v>9513</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0169333130785138</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0049077224768388</v>
+        <v>0.004950610507990549</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04540108701278062</v>
+        <v>0.04715537706230918</v>
       </c>
     </row>
     <row r="10">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5698</v>
+        <v>5635</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009327339192183391</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04801595269106762</v>
+        <v>0.04748783666557551</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5513</v>
+        <v>5538</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0133445955431331</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06636222850122044</v>
+        <v>0.06665958629393501</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6727</v>
+        <v>7820</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0109816101311627</v>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03334730171473766</v>
+        <v>0.03876176661811093</v>
       </c>
     </row>
     <row r="12">
@@ -2887,7 +2887,7 @@
         <v>116566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>112016</v>
+        <v>111281</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>118665</v>
@@ -2896,7 +2896,7 @@
         <v>0.9823119954079279</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9439699473886606</v>
+        <v>0.9377764511568611</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -2908,19 +2908,19 @@
         <v>79541</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>72694</v>
+        <v>73651</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>81997</v>
+        <v>81992</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9574767929032123</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8750550666728718</v>
+        <v>0.886569113415112</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9870309979307189</v>
+        <v>0.9869762943753539</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>177</v>
@@ -2929,19 +2929,19 @@
         <v>196107</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>190147</v>
+        <v>188869</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>199648</v>
+        <v>199584</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9720850767903235</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9425411132651921</v>
+        <v>0.9362043630535064</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9896342249579247</v>
+        <v>0.9893201255882158</v>
       </c>
     </row>
     <row r="13">
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5849</v>
+        <v>5786</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02252260375132108</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1198099895343084</v>
+        <v>0.1185091255341594</v>
       </c>
     </row>
     <row r="16">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4310</v>
+        <v>5437</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02018791710836008</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08828835643614555</v>
+        <v>0.1113623109261318</v>
       </c>
     </row>
     <row r="17">
@@ -3206,7 +3206,7 @@
         <v>25589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22156</v>
+        <v>22119</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>26575</v>
@@ -3215,7 +3215,7 @@
         <v>0.9629124886789527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.833714616860921</v>
+        <v>0.8323388717765167</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3227,7 +3227,7 @@
         <v>21146</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15945</v>
+        <v>15417</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>22246</v>
@@ -3236,7 +3236,7 @@
         <v>0.9505723444543134</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7167562715227499</v>
+        <v>0.6930418457387111</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3248,7 +3248,7 @@
         <v>46736</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41633</v>
+        <v>42194</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>48821</v>
@@ -3257,7 +3257,7 @@
         <v>0.9572894791403188</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8527681781161752</v>
+        <v>0.864264277179137</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -3352,19 +3352,19 @@
         <v>7249</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3056</v>
+        <v>3102</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13613</v>
+        <v>13701</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01295215736473482</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005459942879055296</v>
+        <v>0.005542209316306538</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02432489999664739</v>
+        <v>0.02448245978475737</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -3373,19 +3373,19 @@
         <v>13490</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6812</v>
+        <v>7188</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23553</v>
+        <v>23286</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01823259969630798</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009207318740708193</v>
+        <v>0.009715513661278274</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03183481160328559</v>
+        <v>0.03147334877185372</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -3394,19 +3394,19 @@
         <v>20738</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13042</v>
+        <v>13225</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31921</v>
+        <v>31804</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0159585507697572</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01003625378494894</v>
+        <v>0.01017660397092317</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02456404503402712</v>
+        <v>0.02447381394457581</v>
       </c>
     </row>
     <row r="20">
@@ -3423,19 +3423,19 @@
         <v>4353</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13081</v>
+        <v>13226</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007777882856505802</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001855157322663692</v>
+        <v>0.001848024560781674</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02337347154135096</v>
+        <v>0.02363329329950233</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -3444,19 +3444,19 @@
         <v>14023</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7567</v>
+        <v>7835</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23600</v>
+        <v>24353</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01895401834397875</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01022753957270296</v>
+        <v>0.01058990454436199</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03189797637991178</v>
+        <v>0.03291567812151176</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -3465,19 +3465,19 @@
         <v>18376</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10105</v>
+        <v>10724</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30174</v>
+        <v>31159</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0141409596431365</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0077759188757578</v>
+        <v>0.008252546100793063</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02321960703337912</v>
+        <v>0.02397765263733564</v>
       </c>
     </row>
     <row r="21">
@@ -3494,19 +3494,19 @@
         <v>14866</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8450</v>
+        <v>8357</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24359</v>
+        <v>25706</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02656427670902785</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01509991251247086</v>
+        <v>0.01493308215868145</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04352664901295304</v>
+        <v>0.04593339760845548</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>33</v>
@@ -3515,19 +3515,19 @@
         <v>36060</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25595</v>
+        <v>25976</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50128</v>
+        <v>48802</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04873834341783306</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03459369143868123</v>
+        <v>0.03510931193251764</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06775241513702072</v>
+        <v>0.06596120045070597</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>47</v>
@@ -3536,19 +3536,19 @@
         <v>50926</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>37958</v>
+        <v>37665</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>64785</v>
+        <v>65928</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03918897057553915</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02920950921356297</v>
+        <v>0.02898446136324776</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0498533561285484</v>
+        <v>0.05073354251841894</v>
       </c>
     </row>
     <row r="22">
@@ -3565,19 +3565,19 @@
         <v>533169</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>521035</v>
+        <v>520565</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>542009</v>
+        <v>541850</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9527056830697316</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9310239410673773</v>
+        <v>0.9301838783279787</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9685014716999826</v>
+        <v>0.9682166446711699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>634</v>
@@ -3586,19 +3586,19 @@
         <v>676292</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>660349</v>
+        <v>659839</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>691607</v>
+        <v>691144</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9140750385418802</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8925263278934588</v>
+        <v>0.8918373132634274</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9347749064180589</v>
+        <v>0.9341492421948671</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1114</v>
@@ -3607,19 +3607,19 @@
         <v>1209461</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1188936</v>
+        <v>1189547</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1226942</v>
+        <v>1226823</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9307115190115671</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9149164360029408</v>
+        <v>0.915387137054813</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9441633765053279</v>
+        <v>0.9440717128428973</v>
       </c>
     </row>
     <row r="23">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4501</v>
+        <v>4931</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002521288685853434</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01271750470197671</v>
+        <v>0.01393348687954851</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -3971,19 +3971,19 @@
         <v>9535</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4574</v>
+        <v>3817</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20632</v>
+        <v>18811</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01718841891347363</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008245815210740564</v>
+        <v>0.006879852398851807</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03719026114900579</v>
+        <v>0.03390802355549236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -3992,19 +3992,19 @@
         <v>10428</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4530</v>
+        <v>5118</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20627</v>
+        <v>19876</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01147590972664773</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004985458050470368</v>
+        <v>0.005632015820387904</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02270021662026011</v>
+        <v>0.02187438337504883</v>
       </c>
     </row>
     <row r="5">
@@ -4021,19 +4021,19 @@
         <v>6017</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2504</v>
+        <v>2607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12091</v>
+        <v>12322</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01700311062766241</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007074704691624529</v>
+        <v>0.007366224627417109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03416633052548505</v>
+        <v>0.03481871867673136</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8387</v>
+        <v>8009</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00444621702849223</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01511917269706048</v>
+        <v>0.01443630284619944</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -4063,19 +4063,19 @@
         <v>8484</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3725</v>
+        <v>4081</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15365</v>
+        <v>15455</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009336837683661368</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00409990807783182</v>
+        <v>0.004491092446185445</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01690920305956868</v>
+        <v>0.01700848700861973</v>
       </c>
     </row>
     <row r="6">
@@ -4092,19 +4092,19 @@
         <v>8638</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4431</v>
+        <v>4072</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15675</v>
+        <v>15397</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02440854670475737</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01252067512625577</v>
+        <v>0.01150670280612542</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04429179473492149</v>
+        <v>0.04350735784852667</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -4113,19 +4113,19 @@
         <v>29871</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19879</v>
+        <v>19715</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44005</v>
+        <v>43931</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05384494763945591</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03583409865292596</v>
+        <v>0.03553847048914084</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07932339705550168</v>
+        <v>0.07919047241675634</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -4134,19 +4134,19 @@
         <v>38509</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26562</v>
+        <v>27195</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>53652</v>
+        <v>53282</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04238014790311104</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02923201642431517</v>
+        <v>0.02992922249525493</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05904486085410601</v>
+        <v>0.05863781674260877</v>
       </c>
     </row>
     <row r="7">
@@ -4163,19 +4163,19 @@
         <v>338353</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>330211</v>
+        <v>330730</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>344992</v>
+        <v>344660</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9560670539817268</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9330608124017229</v>
+        <v>0.9345265397565015</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.97482655633041</v>
+        <v>0.9738892388422935</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>438</v>
@@ -4184,19 +4184,19 @@
         <v>512884</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>495421</v>
+        <v>495846</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>525398</v>
+        <v>524792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9245204164185782</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8930422763344548</v>
+        <v>0.8938077694141364</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9470784126610796</v>
+        <v>0.945985459778215</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>806</v>
@@ -4205,19 +4205,19 @@
         <v>851237</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>833676</v>
+        <v>833619</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>865240</v>
+        <v>865169</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9368071046865799</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9174799700160896</v>
+        <v>0.9174182120684489</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9522172265516451</v>
+        <v>0.9521387778578166</v>
       </c>
     </row>
     <row r="8">
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5528</v>
+        <v>6385</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.009370532660599817</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02871409039112467</v>
+        <v>0.03316519783893054</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5978</v>
+        <v>6354</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.004740144296049346</v>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01570596606338288</v>
+        <v>0.01669447291601682</v>
       </c>
     </row>
     <row r="10">
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4538</v>
+        <v>3674</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004663014880040691</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0235694353119838</v>
+        <v>0.01908302086890739</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7736</v>
+        <v>7390</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01146343122452834</v>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04113521701173461</v>
+        <v>0.03929396579890972</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -4414,19 +4414,19 @@
         <v>3054</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7861</v>
+        <v>9131</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008023396819480923</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002346419554264863</v>
+        <v>0.002340019858481117</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02065390028983812</v>
+        <v>0.02399149041440705</v>
       </c>
     </row>
     <row r="11">
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5601</v>
+        <v>6048</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00549514034985175</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02978240141071123</v>
+        <v>0.032155306897123</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5969</v>
+        <v>5212</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002715388213149519</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01568364798227457</v>
+        <v>0.0136951017861628</v>
       </c>
     </row>
     <row r="12">
@@ -4506,19 +4506,19 @@
         <v>189830</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>185285</v>
+        <v>185162</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>191655</v>
+        <v>191652</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9859664524593595</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9623618771183006</v>
+        <v>0.9617223325275315</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9954432589899548</v>
+        <v>0.9954318018769173</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>154</v>
@@ -4527,19 +4527,19 @@
         <v>184885</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>179252</v>
+        <v>179367</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>187126</v>
+        <v>187108</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9830414284256199</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9530950562591147</v>
+        <v>0.9537044062116093</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9949576834960967</v>
+        <v>0.9948618346481931</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>348</v>
@@ -4548,19 +4548,19 @@
         <v>374715</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>368616</v>
+        <v>367583</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>377896</v>
+        <v>378483</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9845210706713202</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9684967163582762</v>
+        <v>0.9657829597318217</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9928797558358257</v>
+        <v>0.9944209118398244</v>
       </c>
     </row>
     <row r="13">
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6553</v>
+        <v>7463</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03740797777715391</v>
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1559090507414063</v>
+        <v>0.1775644624743901</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4770,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11116</v>
+        <v>9859</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03894166112874054</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1468315714054358</v>
+        <v>0.1302288062459633</v>
       </c>
     </row>
     <row r="17">
@@ -4817,7 +4817,7 @@
         <v>40457</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35476</v>
+        <v>34566</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>42029</v>
@@ -4826,7 +4826,7 @@
         <v>0.9625920222228461</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.844090949258594</v>
+        <v>0.82243553752561</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -4838,7 +4838,7 @@
         <v>32298</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>33674</v>
@@ -4847,7 +4847,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4859,7 +4859,7 @@
         <v>72755</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64587</v>
+        <v>65844</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>75703</v>
@@ -4868,7 +4868,7 @@
         <v>0.9610583388712595</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8531684285945631</v>
+        <v>0.8697711937540354</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -4963,19 +4963,19 @@
         <v>2696</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8107</v>
+        <v>7993</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004582135707236309</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001502187457019367</v>
+        <v>0.001513234552753694</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01377734062085924</v>
+        <v>0.01358299333486069</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -4984,19 +4984,19 @@
         <v>9535</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3814</v>
+        <v>4008</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18622</v>
+        <v>19338</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01227988625076695</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004911855477434474</v>
+        <v>0.005161308813052633</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02398219487522074</v>
+        <v>0.02490335142148772</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5005,19 +5005,19 @@
         <v>12232</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6299</v>
+        <v>6320</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22240</v>
+        <v>23654</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008961244125930969</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004614712845377244</v>
+        <v>0.004630296511611925</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01629333493865849</v>
+        <v>0.01732939284923446</v>
       </c>
     </row>
     <row r="20">
@@ -5034,19 +5034,19 @@
         <v>6915</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3296</v>
+        <v>3279</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13528</v>
+        <v>13111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01175130616754476</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005600721019483591</v>
+        <v>0.005571430636446795</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02298809627359749</v>
+        <v>0.02228043282271886</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -5055,19 +5055,19 @@
         <v>4623</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1217</v>
+        <v>1191</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10662</v>
+        <v>10714</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005953012549330325</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0015668593057163</v>
+        <v>0.001533919601593893</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01373079646176635</v>
+        <v>0.01379764760747664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -5076,19 +5076,19 @@
         <v>11538</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6302</v>
+        <v>6225</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19690</v>
+        <v>19775</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00845276378766395</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004616801875772191</v>
+        <v>0.004560201146027323</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01442501425420803</v>
+        <v>0.01448771313507106</v>
       </c>
     </row>
     <row r="21">
@@ -5105,19 +5105,19 @@
         <v>10210</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5403</v>
+        <v>5617</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17980</v>
+        <v>17839</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01735105048929186</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00918209514238752</v>
+        <v>0.009545506024933304</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03055405623475466</v>
+        <v>0.03031449735660189</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -5126,19 +5126,19 @@
         <v>32280</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21923</v>
+        <v>21881</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>45535</v>
+        <v>47452</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04157105167178842</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02823298415773652</v>
+        <v>0.02817845429840222</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05864097479784581</v>
+        <v>0.06111016502310615</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>37</v>
@@ -5147,19 +5147,19 @@
         <v>42491</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30634</v>
+        <v>30323</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>58195</v>
+        <v>57573</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03112936280004894</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02244301441170012</v>
+        <v>0.02221487830973299</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04263473520485963</v>
+        <v>0.04217905133435228</v>
       </c>
     </row>
     <row r="22">
@@ -5176,19 +5176,19 @@
         <v>568641</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>557202</v>
+        <v>559607</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>575293</v>
+        <v>575979</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9663155076359271</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9468765762594388</v>
+        <v>0.950964051932948</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9776189110043305</v>
+        <v>0.9787853640241758</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>617</v>
@@ -5197,19 +5197,19 @@
         <v>730067</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>714094</v>
+        <v>712047</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>742952</v>
+        <v>742526</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9401960495281143</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9196263698579287</v>
+        <v>0.9169891086915107</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9567895495241185</v>
+        <v>0.9562414348846625</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1219</v>
@@ -5218,19 +5218,19 @@
         <v>1298708</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1279813</v>
+        <v>1280645</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1314173</v>
+        <v>1314670</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9514566292863561</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.937613602214544</v>
+        <v>0.9382237917186241</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9627865208153004</v>
+        <v>0.9631511219301818</v>
       </c>
     </row>
     <row r="23">
@@ -5561,19 +5561,19 @@
         <v>2113</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5248</v>
+        <v>5055</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.007297946832656508</v>
+        <v>0.007297946832656509</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002368250626416834</v>
+        <v>0.00237212355243746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0181206326784132</v>
+        <v>0.01745443715750126</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5582,19 +5582,19 @@
         <v>11538</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7343</v>
+        <v>6626</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18001</v>
+        <v>17252</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02141433389829308</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01362840915780607</v>
+        <v>0.01229741755592645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03340990121304582</v>
+        <v>0.03202113387161787</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -5603,19 +5603,19 @@
         <v>13651</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9089</v>
+        <v>9230</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20075</v>
+        <v>20494</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01647934963459803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01097250173740604</v>
+        <v>0.01114213222925996</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02423460638013675</v>
+        <v>0.0247404032465135</v>
       </c>
     </row>
     <row r="5">
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4612</v>
+        <v>4679</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003165412385820214</v>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01592662533798267</v>
+        <v>0.01615561614195354</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -5653,19 +5653,19 @@
         <v>6474</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3487</v>
+        <v>3182</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11345</v>
+        <v>11029</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01201509663539351</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006472481883857142</v>
+        <v>0.005906370694003432</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02105731434663466</v>
+        <v>0.02047030423693323</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -5674,19 +5674,19 @@
         <v>7390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4105</v>
+        <v>3911</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12819</v>
+        <v>12547</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008921312630516849</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.004955676846989572</v>
+        <v>0.004720841326399819</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01547481308124796</v>
+        <v>0.01514617148109749</v>
       </c>
     </row>
     <row r="6">
@@ -5703,19 +5703,19 @@
         <v>9659</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5544</v>
+        <v>5592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15672</v>
+        <v>15224</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03335285083678938</v>
+        <v>0.03335285083678939</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01914267961520192</v>
+        <v>0.01931075172596395</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05411699570842813</v>
+        <v>0.05257111357474441</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -5724,19 +5724,19 @@
         <v>32815</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25328</v>
+        <v>24820</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43214</v>
+        <v>42391</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06090686580666294</v>
+        <v>0.06090686580666292</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04701029469569222</v>
+        <v>0.04606761243164391</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08020726304409724</v>
+        <v>0.07867986970717612</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>76</v>
@@ -5745,19 +5745,19 @@
         <v>42474</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33468</v>
+        <v>33905</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>55457</v>
+        <v>53545</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.05127418644999131</v>
+        <v>0.0512741864499913</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04040145443635542</v>
+        <v>0.04093016771918835</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06694686353963981</v>
+        <v>0.06463911149416399</v>
       </c>
     </row>
     <row r="7">
@@ -5774,19 +5774,19 @@
         <v>276905</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>270502</v>
+        <v>270698</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>281977</v>
+        <v>281547</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.9561837899447339</v>
+        <v>0.9561837899447341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9340737153592369</v>
+        <v>0.9347494447402198</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9736989765732226</v>
+        <v>0.9722127843032716</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>926</v>
@@ -5795,19 +5795,19 @@
         <v>487954</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>475877</v>
+        <v>477215</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>496820</v>
+        <v>498240</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9056637036596503</v>
+        <v>0.9056637036596504</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8832475565648927</v>
+        <v>0.8857308974605933</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.922118284548337</v>
+        <v>0.9247538789496534</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1332</v>
@@ -5816,19 +5816,19 @@
         <v>764859</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>750725</v>
+        <v>752794</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>776264</v>
+        <v>775758</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9233251512848939</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9062628644558115</v>
+        <v>0.9087611493203464</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9370936335492358</v>
+        <v>0.9364830598307203</v>
       </c>
     </row>
     <row r="8">
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2580</v>
+        <v>2028</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001648376922555469</v>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.009302396323924881</v>
+        <v>0.007314429028460255</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2216</v>
+        <v>2290</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0007865699349319269</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003813052411181329</v>
+        <v>0.003940665821837735</v>
       </c>
     </row>
     <row r="10">
@@ -5983,19 +5983,19 @@
         <v>2259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6394</v>
+        <v>6580</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.007434615140978744</v>
+        <v>0.007434615140978745</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002126289198157091</v>
+        <v>0.002146181368507836</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02104363003385572</v>
+        <v>0.02165595168426905</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -6004,19 +6004,19 @@
         <v>1714</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4710</v>
+        <v>4972</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.006182182175881613</v>
+        <v>0.006182182175881612</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>0.001662703935384384</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01698692854755756</v>
+        <v>0.01793034265744506</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -6025,19 +6025,19 @@
         <v>3973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8733</v>
+        <v>8612</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006836981127554305</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00297887142368374</v>
+        <v>0.002975349224073593</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01502688010691318</v>
+        <v>0.0148201137596193</v>
       </c>
     </row>
     <row r="11">
@@ -6054,19 +6054,19 @@
         <v>3682</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1500</v>
+        <v>1253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8996</v>
+        <v>8773</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01211865975067557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004937123325160979</v>
+        <v>0.004123295714432772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02960836511392766</v>
+        <v>0.0288767984822243</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -6075,19 +6075,19 @@
         <v>8592</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5127</v>
+        <v>5070</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13803</v>
+        <v>13649</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03098589740670695</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01848794528569399</v>
+        <v>0.01828187516443628</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04977772741861883</v>
+        <v>0.04922255939050182</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>22</v>
@@ -6096,19 +6096,19 @@
         <v>12274</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7627</v>
+        <v>7945</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18783</v>
+        <v>19241</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02112169885683026</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01312438092507423</v>
+        <v>0.01367177006744898</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03232136383330321</v>
+        <v>0.03311023663416048</v>
       </c>
     </row>
     <row r="12">
@@ -6125,19 +6125,19 @@
         <v>297884</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>291807</v>
+        <v>292421</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>301091</v>
+        <v>301177</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9804467251083454</v>
+        <v>0.9804467251083456</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9604450671933706</v>
+        <v>0.9624659472512169</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9910020300948119</v>
+        <v>0.9912853111402526</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>507</v>
@@ -6146,19 +6146,19 @@
         <v>266537</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>261155</v>
+        <v>260563</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>270563</v>
+        <v>270334</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.961183543494856</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9417757314774349</v>
+        <v>0.9396401634686845</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9757011619996445</v>
+        <v>0.9748769537745114</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>925</v>
@@ -6167,19 +6167,19 @@
         <v>564421</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>557020</v>
+        <v>556425</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>569952</v>
+        <v>570154</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9712547500806836</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9585181636483503</v>
+        <v>0.957495400076912</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9807720788832655</v>
+        <v>0.9811193798662541</v>
       </c>
     </row>
     <row r="13">
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3535</v>
+        <v>3116</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.005541037417532714</v>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02973182611215899</v>
+        <v>0.02620735193796807</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>3330</v>
+        <v>3296</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.003265273386149191</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01650808510660043</v>
+        <v>0.01633856499487876</v>
       </c>
     </row>
     <row r="16">
@@ -6428,7 +6428,7 @@
         <v>118222</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>115346</v>
+        <v>115765</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>118881</v>
@@ -6437,7 +6437,7 @@
         <v>0.9944589625824672</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9702681738878403</v>
+        <v>0.9737926480620315</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6462,7 +6462,7 @@
         <v>201077</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>198406</v>
+        <v>198440</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>201736</v>
@@ -6471,7 +6471,7 @@
         <v>0.9967347266138509</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9834919148933996</v>
+        <v>0.9836614350051214</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -6566,19 +6566,19 @@
         <v>2113</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>608</v>
+        <v>688</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4850</v>
+        <v>4863</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002967063295195649</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0008540901028406821</v>
+        <v>0.0009657662988763636</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.00680945578797745</v>
+        <v>0.006826890511846278</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -6587,19 +6587,19 @@
         <v>11995</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7737</v>
+        <v>7260</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18470</v>
+        <v>18008</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01334323836014112</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008606397481643381</v>
+        <v>0.008076215083800405</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02054613324379241</v>
+        <v>0.02003302193900948</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -6608,19 +6608,19 @@
         <v>14108</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9542</v>
+        <v>9075</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20169</v>
+        <v>20591</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008756111654018231</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005921852154820594</v>
+        <v>0.005632606159515584</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01251793258437196</v>
+        <v>0.01277986988978141</v>
       </c>
     </row>
     <row r="20">
@@ -6637,19 +6637,19 @@
         <v>3834</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1308</v>
+        <v>1327</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9073</v>
+        <v>8544</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005382889119656802</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001836222386599642</v>
+        <v>0.001863672883017958</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01273758529781961</v>
+        <v>0.01199483867061828</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -6658,19 +6658,19 @@
         <v>8188</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4666</v>
+        <v>4696</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13391</v>
+        <v>13715</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00910834592672494</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005190941522972493</v>
+        <v>0.00522340342011571</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01489692693567075</v>
+        <v>0.01525698856563466</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -6679,19 +6679,19 @@
         <v>12022</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7840</v>
+        <v>7251</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>18292</v>
+        <v>18430</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007461386203585441</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004865571747157203</v>
+        <v>0.004500305529305412</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01135287481902054</v>
+        <v>0.01143854500889225</v>
       </c>
     </row>
     <row r="21">
@@ -6708,19 +6708,19 @@
         <v>13341</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8162</v>
+        <v>8395</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20381</v>
+        <v>20487</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.01872908961285892</v>
+        <v>0.01872908961285893</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01145857244340828</v>
+        <v>0.01178638841790325</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02861317997219922</v>
+        <v>0.02876144274377206</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>78</v>
@@ -6729,19 +6729,19 @@
         <v>41408</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32242</v>
+        <v>33103</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>51461</v>
+        <v>52232</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04606315318061557</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03586697779240065</v>
+        <v>0.03682419675268978</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05724649715524979</v>
+        <v>0.0581042473956425</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>98</v>
@@ -6750,19 +6750,19 @@
         <v>54749</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>43819</v>
+        <v>44558</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66410</v>
+        <v>67805</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03397923861732788</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02719616661086336</v>
+        <v>0.02765456591036447</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04121668884243452</v>
+        <v>0.04208290716638349</v>
       </c>
     </row>
     <row r="22">
@@ -6779,19 +6779,19 @@
         <v>693012</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>684852</v>
+        <v>684603</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>699703</v>
+        <v>699202</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9729209579722886</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9614657398629269</v>
+        <v>0.9611158601565934</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9823154612376935</v>
+        <v>0.9816115399857736</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1585</v>
@@ -6800,19 +6800,19 @@
         <v>837347</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>824630</v>
+        <v>824967</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>847704</v>
+        <v>848635</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9314852625325183</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9173390640356892</v>
+        <v>0.9177134662100748</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9430069947444631</v>
+        <v>0.9440423994914635</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2576</v>
@@ -6821,19 +6821,19 @@
         <v>1530357</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1516296</v>
+        <v>1517195</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1543516</v>
+        <v>1543583</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9498032635250686</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9410765117947473</v>
+        <v>0.9416339424944555</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9579701561390682</v>
+        <v>0.9580114423855395</v>
       </c>
     </row>
     <row r="23">
